--- a/biology/Mycologie/Seiridium/Seiridium.xlsx
+++ b/biology/Mycologie/Seiridium/Seiridium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seiridium est un genre de champignons ascomycètes de la famille des Amphisphaeriaceae.  
 Ce genre est la forme asexuée (anamorphe) du genre Lepteutypa. Il contient notamment Seiridium cardinale, agent pathogène du chancre cortical du cyprès, dont on ne connait pas la forme sexuée (téléomorphe).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 août 2014) :
 Seiridium abietinum
 Seiridium anceps
 Seiridium banksiae
@@ -542,7 +556,7 @@
 Seiridium turgidum
 Seiridium venetum
 Seiridium viburni
-Selon Index Fungorum                                      (18 août 2014)[2] :
+Selon Index Fungorum                                      (18 août 2014) :
 Seiridium abietinum (Ellis &amp; Everh.) B. Sutton 1975
 Seiridium anceps (Sacc.) B. Sutton 1975
 Seiridium banksiae Crous &amp; Summerell 2011
@@ -577,7 +591,7 @@
 Seiridium turgidum (G.F. Atk.) Nag Raj 1993
 Seiridium venetum (Sacc.) Nag Raj 1989
 Seiridium viburni (Sousa da Câmara &amp; Luz) B. Sutton 1963
-Selon NCBI  (18 août 2014)[3] :
+Selon NCBI  (18 août 2014) :
 Seiridium banksiae
 Seiridium cardinale
 Seiridium ceratosporum
